--- a/Cook County External-C2C/results/cook_county_external_results.xlsx
+++ b/Cook County External-C2C/results/cook_county_external_results.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cornerstone_5" r:id="rId4" sheetId="2"/>
+    <sheet name="CottageGrove_5" r:id="rId6" sheetId="3"/>
+    <sheet name="Phillips_5" r:id="rId7" sheetId="4"/>
+    <sheet name="Harvey_6" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +20,131 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PV_size</t>
+  </si>
+  <si>
+    <t>PV_year1_production</t>
+  </si>
+  <si>
+    <t>PV_annual_energy_production_avg</t>
+  </si>
+  <si>
+    <t>PV_energy_lcoe</t>
+  </si>
+  <si>
+    <t>PV_energy_exported</t>
+  </si>
+  <si>
+    <t>PV_energy_curtailed</t>
+  </si>
+  <si>
+    <t>PV_energy_to_Battery_year1</t>
+  </si>
+  <si>
+    <t>Battery_size_kW</t>
+  </si>
+  <si>
+    <t>Battery_size_kWh</t>
+  </si>
+  <si>
+    <t>Battery_serve_electric_load</t>
+  </si>
+  <si>
+    <t>Battery_initial_capex_cost</t>
+  </si>
+  <si>
+    <t>Generator_size</t>
+  </si>
+  <si>
+    <t>Generator_annual_fuel_consumption</t>
+  </si>
+  <si>
+    <t>Generator_annual_energy_produced</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_Supplied_kWh_annual</t>
+  </si>
+  <si>
+    <t>Total_Annual_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>ElecUtility_Annual_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>BAU_Total_Annual_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>LifeCycle_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>BAU_LifeCycle_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>LifeCycle_Emission_Reduction_Fraction</t>
+  </si>
+  <si>
+    <t>LifeCycle_capex_costs_for_generation_techs</t>
+  </si>
+  <si>
+    <t>LifeCycle_capex_costs_for_battery</t>
+  </si>
+  <si>
+    <t>Initial_upfront_capex_wo_incentives</t>
+  </si>
+  <si>
+    <t>Initial_upfront_capex_w_incentives</t>
+  </si>
+  <si>
+    <t>Yr1_energy_cost_after_tax</t>
+  </si>
+  <si>
+    <t>Yr1_demand_cost_after_tax</t>
+  </si>
+  <si>
+    <t>Yr1_total_energy_bill_before_tax</t>
+  </si>
+  <si>
+    <t>Yr1_export_benefit_before_tax</t>
+  </si>
+  <si>
+    <t>Annual_renewable_electricity_kwh</t>
+  </si>
+  <si>
+    <t>Annual_renewable_electricity_kwh_fraction</t>
+  </si>
+  <si>
+    <t>npv</t>
+  </si>
+  <si>
+    <t>lcc</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Scenario 4</t>
+  </si>
+  <si>
+    <t>Scenario 5</t>
+  </si>
+  <si>
+    <t>Scenario 6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -339,4 +468,2620 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>6.0</v>
+      </c>
+      <c r="C2">
+        <v>8328.0</v>
+      </c>
+      <c r="D2">
+        <v>7937.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>250.858</v>
+      </c>
+      <c r="I2">
+        <v>23.0</v>
+      </c>
+      <c r="J2">
+        <v>93.0</v>
+      </c>
+      <c r="K2">
+        <v>13550.008999999998</v>
+      </c>
+      <c r="L2">
+        <v>62977.0</v>
+      </c>
+      <c r="M2">
+        <v>0.0</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>127903.0</v>
+      </c>
+      <c r="Q2">
+        <v>40.4376</v>
+      </c>
+      <c r="R2">
+        <v>40.4376</v>
+      </c>
+      <c r="S2">
+        <v>39.996</v>
+      </c>
+      <c r="T2">
+        <v>1010.94</v>
+      </c>
+      <c r="U2">
+        <v>999.9</v>
+      </c>
+      <c r="V2">
+        <v>-0.01</v>
+      </c>
+      <c r="W2">
+        <v>10396.23</v>
+      </c>
+      <c r="X2">
+        <v>45481.49</v>
+      </c>
+      <c r="Y2">
+        <v>88365.36</v>
+      </c>
+      <c r="Z2">
+        <v>37617.35</v>
+      </c>
+      <c r="AA2">
+        <v>14836.79</v>
+      </c>
+      <c r="AB2">
+        <v>2330.0</v>
+      </c>
+      <c r="AC2">
+        <v>17474.79</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0</v>
+      </c>
+      <c r="AE2">
+        <v>7911.41</v>
+      </c>
+      <c r="AF2">
+        <v>0.06</v>
+      </c>
+      <c r="AG2">
+        <v>-34451.07</v>
+      </c>
+      <c r="AH2">
+        <v>246975.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>58.0</v>
+      </c>
+      <c r="C3">
+        <v>76882.0</v>
+      </c>
+      <c r="D3">
+        <v>73275.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>2651.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>16620.551</v>
+      </c>
+      <c r="I3">
+        <v>17.0</v>
+      </c>
+      <c r="J3">
+        <v>104.0</v>
+      </c>
+      <c r="K3">
+        <v>18970.275</v>
+      </c>
+      <c r="L3">
+        <v>62922.0</v>
+      </c>
+      <c r="M3">
+        <v>0.0</v>
+      </c>
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>65825.0</v>
+      </c>
+      <c r="Q3">
+        <v>23.614</v>
+      </c>
+      <c r="R3">
+        <v>23.614</v>
+      </c>
+      <c r="S3">
+        <v>39.996</v>
+      </c>
+      <c r="T3">
+        <v>590.35</v>
+      </c>
+      <c r="U3">
+        <v>999.9</v>
+      </c>
+      <c r="V3">
+        <v>0.41</v>
+      </c>
+      <c r="W3">
+        <v>95980.35</v>
+      </c>
+      <c r="X3">
+        <v>46674.87</v>
+      </c>
+      <c r="Y3">
+        <v>297333.39</v>
+      </c>
+      <c r="Z3">
+        <v>124588.09</v>
+      </c>
+      <c r="AA3">
+        <v>7635.73</v>
+      </c>
+      <c r="AB3">
+        <v>1748.74</v>
+      </c>
+      <c r="AC3">
+        <v>9692.47</v>
+      </c>
+      <c r="AD3">
+        <v>148.0</v>
+      </c>
+      <c r="AE3">
+        <v>71588.82</v>
+      </c>
+      <c r="AF3">
+        <v>0.53</v>
+      </c>
+      <c r="AG3">
+        <v>-44466.79</v>
+      </c>
+      <c r="AH3">
+        <v>258659.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>60.0</v>
+      </c>
+      <c r="C4">
+        <v>79423.0</v>
+      </c>
+      <c r="D4">
+        <v>75697.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>14423.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>6817.132</v>
+      </c>
+      <c r="I4">
+        <v>12.0</v>
+      </c>
+      <c r="J4">
+        <v>97.0</v>
+      </c>
+      <c r="K4">
+        <v>13700.024</v>
+      </c>
+      <c r="L4">
+        <v>55542.0</v>
+      </c>
+      <c r="M4">
+        <v>0.0</v>
+      </c>
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>74582.0</v>
+      </c>
+      <c r="Q4">
+        <v>24.6064</v>
+      </c>
+      <c r="R4">
+        <v>24.6064</v>
+      </c>
+      <c r="S4">
+        <v>39.996</v>
+      </c>
+      <c r="T4">
+        <v>615.16</v>
+      </c>
+      <c r="U4">
+        <v>999.9</v>
+      </c>
+      <c r="V4">
+        <v>0.38</v>
+      </c>
+      <c r="W4">
+        <v>99152.54</v>
+      </c>
+      <c r="X4">
+        <v>41747.96</v>
+      </c>
+      <c r="Y4">
+        <v>297696.94</v>
+      </c>
+      <c r="Z4">
+        <v>125032.92</v>
+      </c>
+      <c r="AA4">
+        <v>8651.56</v>
+      </c>
+      <c r="AB4">
+        <v>1781.9</v>
+      </c>
+      <c r="AC4">
+        <v>10741.46</v>
+      </c>
+      <c r="AD4">
+        <v>1671.0</v>
+      </c>
+      <c r="AE4">
+        <v>75005.03</v>
+      </c>
+      <c r="AF4">
+        <v>0.56</v>
+      </c>
+      <c r="AG4">
+        <v>-37900.6</v>
+      </c>
+      <c r="AH4">
+        <v>252167.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>7.0</v>
+      </c>
+      <c r="C5">
+        <v>8609.0</v>
+      </c>
+      <c r="D5">
+        <v>8205.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>218.09500000000003</v>
+      </c>
+      <c r="I5">
+        <v>13.0</v>
+      </c>
+      <c r="J5">
+        <v>14.0</v>
+      </c>
+      <c r="K5">
+        <v>953.0980000000001</v>
+      </c>
+      <c r="L5">
+        <v>17722.0</v>
+      </c>
+      <c r="M5">
+        <v>10.0</v>
+      </c>
+      <c r="N5">
+        <v>0.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>126239.0</v>
+      </c>
+      <c r="Q5">
+        <v>38.3976</v>
+      </c>
+      <c r="R5">
+        <v>38.3976</v>
+      </c>
+      <c r="S5">
+        <v>39.996</v>
+      </c>
+      <c r="T5">
+        <v>959.94</v>
+      </c>
+      <c r="U5">
+        <v>999.9</v>
+      </c>
+      <c r="V5">
+        <v>0.04</v>
+      </c>
+      <c r="W5">
+        <v>10746.97</v>
+      </c>
+      <c r="X5">
+        <v>11426.38</v>
+      </c>
+      <c r="Y5">
+        <v>43964.72</v>
+      </c>
+      <c r="Z5">
+        <v>16838.54</v>
+      </c>
+      <c r="AA5">
+        <v>14643.68</v>
+      </c>
+      <c r="AB5">
+        <v>2983.08</v>
+      </c>
+      <c r="AC5">
+        <v>17934.76</v>
+      </c>
+      <c r="AD5">
+        <v>-0.0</v>
+      </c>
+      <c r="AE5">
+        <v>8182.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.06</v>
+      </c>
+      <c r="AG5">
+        <v>-6892.05</v>
+      </c>
+      <c r="AH5">
+        <v>220699.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>22.0</v>
+      </c>
+      <c r="C6">
+        <v>28920.0</v>
+      </c>
+      <c r="D6">
+        <v>27563.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>523.763</v>
+      </c>
+      <c r="I6">
+        <v>10.0</v>
+      </c>
+      <c r="J6">
+        <v>25.0</v>
+      </c>
+      <c r="K6">
+        <v>2813.694</v>
+      </c>
+      <c r="L6">
+        <v>20502.0</v>
+      </c>
+      <c r="M6">
+        <v>10.0</v>
+      </c>
+      <c r="N6">
+        <v>0.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>107087.0</v>
+      </c>
+      <c r="Q6">
+        <v>34.6408</v>
+      </c>
+      <c r="R6">
+        <v>34.6408</v>
+      </c>
+      <c r="S6">
+        <v>39.996</v>
+      </c>
+      <c r="T6">
+        <v>866.02</v>
+      </c>
+      <c r="U6">
+        <v>999.9</v>
+      </c>
+      <c r="V6">
+        <v>0.13</v>
+      </c>
+      <c r="W6">
+        <v>36103.59</v>
+      </c>
+      <c r="X6">
+        <v>14234.08</v>
+      </c>
+      <c r="Y6">
+        <v>108680.15</v>
+      </c>
+      <c r="Z6">
+        <v>44309.29</v>
+      </c>
+      <c r="AA6">
+        <v>12422.09</v>
+      </c>
+      <c r="AB6">
+        <v>2607.9</v>
+      </c>
+      <c r="AC6">
+        <v>15337.99</v>
+      </c>
+      <c r="AD6">
+        <v>-0.0</v>
+      </c>
+      <c r="AE6">
+        <v>27509.63</v>
+      </c>
+      <c r="AF6">
+        <v>0.2</v>
+      </c>
+      <c r="AG6">
+        <v>-9325.29</v>
+      </c>
+      <c r="AH6">
+        <v>223950.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>8.0</v>
+      </c>
+      <c r="C7">
+        <v>10383.0</v>
+      </c>
+      <c r="D7">
+        <v>9896.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>76.175</v>
+      </c>
+      <c r="I7">
+        <v>10.0</v>
+      </c>
+      <c r="J7">
+        <v>5.0</v>
+      </c>
+      <c r="K7">
+        <v>194.95600000000002</v>
+      </c>
+      <c r="L7">
+        <v>11571.0</v>
+      </c>
+      <c r="M7">
+        <v>10.0</v>
+      </c>
+      <c r="N7">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7">
+        <v>124464.0</v>
+      </c>
+      <c r="Q7">
+        <v>38.0456</v>
+      </c>
+      <c r="R7">
+        <v>38.0456</v>
+      </c>
+      <c r="S7">
+        <v>39.996</v>
+      </c>
+      <c r="T7">
+        <v>951.14</v>
+      </c>
+      <c r="U7">
+        <v>999.9</v>
+      </c>
+      <c r="V7">
+        <v>0.05</v>
+      </c>
+      <c r="W7">
+        <v>12962.79</v>
+      </c>
+      <c r="X7">
+        <v>7080.7</v>
+      </c>
+      <c r="Y7">
+        <v>43230.18</v>
+      </c>
+      <c r="Z7">
+        <v>16504.3</v>
+      </c>
+      <c r="AA7">
+        <v>14437.83</v>
+      </c>
+      <c r="AB7">
+        <v>3108.11</v>
+      </c>
+      <c r="AC7">
+        <v>17853.94</v>
+      </c>
+      <c r="AD7">
+        <v>-0.0</v>
+      </c>
+      <c r="AE7">
+        <v>9888.52</v>
+      </c>
+      <c r="AF7">
+        <v>0.07</v>
+      </c>
+      <c r="AG7">
+        <v>-4026.61</v>
+      </c>
+      <c r="AH7">
+        <v>218009.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>9.0</v>
+      </c>
+      <c r="C2">
+        <v>11997.0</v>
+      </c>
+      <c r="D2">
+        <v>11434.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>49.292</v>
+      </c>
+      <c r="I2">
+        <v>20.0</v>
+      </c>
+      <c r="J2">
+        <v>84.0</v>
+      </c>
+      <c r="K2">
+        <v>7859.902</v>
+      </c>
+      <c r="L2">
+        <v>56369.95</v>
+      </c>
+      <c r="M2">
+        <v>139818.0</v>
+      </c>
+      <c r="N2">
+        <v>42.9696</v>
+      </c>
+      <c r="O2">
+        <v>42.9696</v>
+      </c>
+      <c r="P2">
+        <v>43.9812</v>
+      </c>
+      <c r="Q2">
+        <v>1074.24</v>
+      </c>
+      <c r="R2">
+        <v>1099.53</v>
+      </c>
+      <c r="S2">
+        <v>0.02</v>
+      </c>
+      <c r="T2">
+        <v>14977.8</v>
+      </c>
+      <c r="U2">
+        <v>40771.74</v>
+      </c>
+      <c r="V2">
+        <v>92948.47</v>
+      </c>
+      <c r="W2">
+        <v>39413.66</v>
+      </c>
+      <c r="X2">
+        <v>16218.89</v>
+      </c>
+      <c r="Y2">
+        <v>3040.83</v>
+      </c>
+      <c r="Z2">
+        <v>19567.72</v>
+      </c>
+      <c r="AA2">
+        <v>-0.0</v>
+      </c>
+      <c r="AB2">
+        <v>11429.58</v>
+      </c>
+      <c r="AC2">
+        <v>0.08</v>
+      </c>
+      <c r="AD2">
+        <v>-30122.98</v>
+      </c>
+      <c r="AE2">
+        <v>270164.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>68.0</v>
+      </c>
+      <c r="C3">
+        <v>89850.0</v>
+      </c>
+      <c r="D3">
+        <v>85635.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>18427.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>3705.2960000000003</v>
+      </c>
+      <c r="I3">
+        <v>17.0</v>
+      </c>
+      <c r="J3">
+        <v>83.0</v>
+      </c>
+      <c r="K3">
+        <v>9596.446</v>
+      </c>
+      <c r="L3">
+        <v>53353.3</v>
+      </c>
+      <c r="M3">
+        <v>84241.0</v>
+      </c>
+      <c r="N3">
+        <v>27.0648</v>
+      </c>
+      <c r="O3">
+        <v>27.0648</v>
+      </c>
+      <c r="P3">
+        <v>43.9812</v>
+      </c>
+      <c r="Q3">
+        <v>676.62</v>
+      </c>
+      <c r="R3">
+        <v>1099.53</v>
+      </c>
+      <c r="S3">
+        <v>0.38</v>
+      </c>
+      <c r="T3">
+        <v>112170.4</v>
+      </c>
+      <c r="U3">
+        <v>38976.38</v>
+      </c>
+      <c r="V3">
+        <v>327304.62</v>
+      </c>
+      <c r="W3">
+        <v>135741.05</v>
+      </c>
+      <c r="X3">
+        <v>9772.01</v>
+      </c>
+      <c r="Y3">
+        <v>2397.85</v>
+      </c>
+      <c r="Z3">
+        <v>12477.86</v>
+      </c>
+      <c r="AA3">
+        <v>2135.0</v>
+      </c>
+      <c r="AB3">
+        <v>85258.99</v>
+      </c>
+      <c r="AC3">
+        <v>0.57</v>
+      </c>
+      <c r="AD3">
+        <v>-35876.15</v>
+      </c>
+      <c r="AE3">
+        <v>277906.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>59.0</v>
+      </c>
+      <c r="C4">
+        <v>77583.0</v>
+      </c>
+      <c r="D4">
+        <v>73943.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>1903.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>12035.964</v>
+      </c>
+      <c r="I4">
+        <v>14.0</v>
+      </c>
+      <c r="J4">
+        <v>99.0</v>
+      </c>
+      <c r="K4">
+        <v>14718.246000000001</v>
+      </c>
+      <c r="L4">
+        <v>57498.35</v>
+      </c>
+      <c r="M4">
+        <v>79982.0</v>
+      </c>
+      <c r="N4">
+        <v>28.1824</v>
+      </c>
+      <c r="O4">
+        <v>28.1824</v>
+      </c>
+      <c r="P4">
+        <v>43.9812</v>
+      </c>
+      <c r="Q4">
+        <v>704.56</v>
+      </c>
+      <c r="R4">
+        <v>1099.53</v>
+      </c>
+      <c r="S4">
+        <v>0.36</v>
+      </c>
+      <c r="T4">
+        <v>96855.89</v>
+      </c>
+      <c r="U4">
+        <v>43025.49</v>
+      </c>
+      <c r="V4">
+        <v>294046.95</v>
+      </c>
+      <c r="W4">
+        <v>123425.94</v>
+      </c>
+      <c r="X4">
+        <v>9277.88</v>
+      </c>
+      <c r="Y4">
+        <v>2352.83</v>
+      </c>
+      <c r="Z4">
+        <v>11938.71</v>
+      </c>
+      <c r="AA4">
+        <v>107.0</v>
+      </c>
+      <c r="AB4">
+        <v>72722.28</v>
+      </c>
+      <c r="AC4">
+        <v>0.48</v>
+      </c>
+      <c r="AD4">
+        <v>-38575.14</v>
+      </c>
+      <c r="AE4">
+        <v>280845.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>31.0</v>
+      </c>
+      <c r="C2">
+        <v>40863.0</v>
+      </c>
+      <c r="D2">
+        <v>38946.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>171.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0</v>
+      </c>
+      <c r="J2">
+        <v>0.0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.0</v>
+      </c>
+      <c r="M2">
+        <v>293590.0</v>
+      </c>
+      <c r="N2">
+        <v>53.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>85.32</v>
+      </c>
+      <c r="R2">
+        <v>85.32</v>
+      </c>
+      <c r="S2">
+        <v>93.0016</v>
+      </c>
+      <c r="T2">
+        <v>2133.0</v>
+      </c>
+      <c r="U2">
+        <v>2325.04</v>
+      </c>
+      <c r="V2">
+        <v>0.08</v>
+      </c>
+      <c r="W2">
+        <v>85345.83</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>158922.75</v>
+      </c>
+      <c r="Z2">
+        <v>85345.83</v>
+      </c>
+      <c r="AA2">
+        <v>34056.38</v>
+      </c>
+      <c r="AB2">
+        <v>12320.99</v>
+      </c>
+      <c r="AC2">
+        <v>46685.37</v>
+      </c>
+      <c r="AD2">
+        <v>10.0</v>
+      </c>
+      <c r="AE2">
+        <v>38945.66</v>
+      </c>
+      <c r="AF2">
+        <v>0.12</v>
+      </c>
+      <c r="AG2">
+        <v>-38136.61</v>
+      </c>
+      <c r="AH2">
+        <v>611309.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>47.0</v>
+      </c>
+      <c r="C3">
+        <v>61981.0</v>
+      </c>
+      <c r="D3">
+        <v>59073.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>2010.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>0.0</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.0</v>
+      </c>
+      <c r="M3">
+        <v>275301.0</v>
+      </c>
+      <c r="N3">
+        <v>44.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>81.3504</v>
+      </c>
+      <c r="R3">
+        <v>81.3504</v>
+      </c>
+      <c r="S3">
+        <v>93.0016</v>
+      </c>
+      <c r="T3">
+        <v>2033.76</v>
+      </c>
+      <c r="U3">
+        <v>2325.04</v>
+      </c>
+      <c r="V3">
+        <v>0.13</v>
+      </c>
+      <c r="W3">
+        <v>105667.97</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>217269.64</v>
+      </c>
+      <c r="Z3">
+        <v>105667.97</v>
+      </c>
+      <c r="AA3">
+        <v>31934.9</v>
+      </c>
+      <c r="AB3">
+        <v>11984.84</v>
+      </c>
+      <c r="AC3">
+        <v>44227.74</v>
+      </c>
+      <c r="AD3">
+        <v>233.0</v>
+      </c>
+      <c r="AE3">
+        <v>59072.88</v>
+      </c>
+      <c r="AF3">
+        <v>0.18</v>
+      </c>
+      <c r="AG3">
+        <v>-23845.26</v>
+      </c>
+      <c r="AH3">
+        <v>603789.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>43.0</v>
+      </c>
+      <c r="C4">
+        <v>57023.0</v>
+      </c>
+      <c r="D4">
+        <v>54348.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>1448.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+      <c r="M4">
+        <v>279464.0</v>
+      </c>
+      <c r="N4">
+        <v>32.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>82.2824</v>
+      </c>
+      <c r="R4">
+        <v>82.2824</v>
+      </c>
+      <c r="S4">
+        <v>93.0016</v>
+      </c>
+      <c r="T4">
+        <v>2057.06</v>
+      </c>
+      <c r="U4">
+        <v>2325.04</v>
+      </c>
+      <c r="V4">
+        <v>0.12</v>
+      </c>
+      <c r="W4">
+        <v>92258.42</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>194933.99</v>
+      </c>
+      <c r="Z4">
+        <v>92258.42</v>
+      </c>
+      <c r="AA4">
+        <v>32417.84</v>
+      </c>
+      <c r="AB4">
+        <v>12041.55</v>
+      </c>
+      <c r="AC4">
+        <v>44767.39</v>
+      </c>
+      <c r="AD4">
+        <v>168.0</v>
+      </c>
+      <c r="AE4">
+        <v>54348.13</v>
+      </c>
+      <c r="AF4">
+        <v>0.16</v>
+      </c>
+      <c r="AG4">
+        <v>-13777.79</v>
+      </c>
+      <c r="AH4">
+        <v>593515.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>31.0</v>
+      </c>
+      <c r="C5">
+        <v>40863.0</v>
+      </c>
+      <c r="D5">
+        <v>38946.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>171.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>293590.0</v>
+      </c>
+      <c r="N5">
+        <v>53.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>85.32</v>
+      </c>
+      <c r="R5">
+        <v>85.32</v>
+      </c>
+      <c r="S5">
+        <v>93.0016</v>
+      </c>
+      <c r="T5">
+        <v>2133.0</v>
+      </c>
+      <c r="U5">
+        <v>2325.04</v>
+      </c>
+      <c r="V5">
+        <v>0.08</v>
+      </c>
+      <c r="W5">
+        <v>85345.83</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>158922.75</v>
+      </c>
+      <c r="Z5">
+        <v>85345.83</v>
+      </c>
+      <c r="AA5">
+        <v>34056.38</v>
+      </c>
+      <c r="AB5">
+        <v>12320.99</v>
+      </c>
+      <c r="AC5">
+        <v>46685.37</v>
+      </c>
+      <c r="AD5">
+        <v>10.0</v>
+      </c>
+      <c r="AE5">
+        <v>38945.66</v>
+      </c>
+      <c r="AF5">
+        <v>0.12</v>
+      </c>
+      <c r="AG5">
+        <v>-38136.61</v>
+      </c>
+      <c r="AH5">
+        <v>611309.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>47.0</v>
+      </c>
+      <c r="C6">
+        <v>61981.0</v>
+      </c>
+      <c r="D6">
+        <v>59073.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>2010.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="J6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.0</v>
+      </c>
+      <c r="M6">
+        <v>275301.0</v>
+      </c>
+      <c r="N6">
+        <v>44.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6">
+        <v>81.3504</v>
+      </c>
+      <c r="R6">
+        <v>81.3504</v>
+      </c>
+      <c r="S6">
+        <v>93.0016</v>
+      </c>
+      <c r="T6">
+        <v>2033.76</v>
+      </c>
+      <c r="U6">
+        <v>2325.04</v>
+      </c>
+      <c r="V6">
+        <v>0.13</v>
+      </c>
+      <c r="W6">
+        <v>105667.97</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>217269.64</v>
+      </c>
+      <c r="Z6">
+        <v>105667.97</v>
+      </c>
+      <c r="AA6">
+        <v>31934.9</v>
+      </c>
+      <c r="AB6">
+        <v>11984.84</v>
+      </c>
+      <c r="AC6">
+        <v>44227.74</v>
+      </c>
+      <c r="AD6">
+        <v>113.0</v>
+      </c>
+      <c r="AE6">
+        <v>59072.88</v>
+      </c>
+      <c r="AF6">
+        <v>0.18</v>
+      </c>
+      <c r="AG6">
+        <v>-25152.28</v>
+      </c>
+      <c r="AH6">
+        <v>605096.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>43.0</v>
+      </c>
+      <c r="C7">
+        <v>57023.0</v>
+      </c>
+      <c r="D7">
+        <v>54348.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>1448.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.0</v>
+      </c>
+      <c r="M7">
+        <v>279464.0</v>
+      </c>
+      <c r="N7">
+        <v>32.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7">
+        <v>0.0</v>
+      </c>
+      <c r="Q7">
+        <v>82.2824</v>
+      </c>
+      <c r="R7">
+        <v>82.2824</v>
+      </c>
+      <c r="S7">
+        <v>93.0016</v>
+      </c>
+      <c r="T7">
+        <v>2057.06</v>
+      </c>
+      <c r="U7">
+        <v>2325.04</v>
+      </c>
+      <c r="V7">
+        <v>0.12</v>
+      </c>
+      <c r="W7">
+        <v>92258.42</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>194933.99</v>
+      </c>
+      <c r="Z7">
+        <v>92258.42</v>
+      </c>
+      <c r="AA7">
+        <v>32417.84</v>
+      </c>
+      <c r="AB7">
+        <v>12041.55</v>
+      </c>
+      <c r="AC7">
+        <v>44767.39</v>
+      </c>
+      <c r="AD7">
+        <v>168.0</v>
+      </c>
+      <c r="AE7">
+        <v>54348.13</v>
+      </c>
+      <c r="AF7">
+        <v>0.16</v>
+      </c>
+      <c r="AG7">
+        <v>-13777.79</v>
+      </c>
+      <c r="AH7">
+        <v>593515.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>51.0</v>
+      </c>
+      <c r="C2">
+        <v>67509.0</v>
+      </c>
+      <c r="D2">
+        <v>64342.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>6277.7029999999995</v>
+      </c>
+      <c r="I2">
+        <v>59.0</v>
+      </c>
+      <c r="J2">
+        <v>244.0</v>
+      </c>
+      <c r="K2">
+        <v>15680.407</v>
+      </c>
+      <c r="L2">
+        <v>165088.0</v>
+      </c>
+      <c r="M2">
+        <v>325918.0</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>97.8936</v>
+      </c>
+      <c r="R2">
+        <v>97.8936</v>
+      </c>
+      <c r="S2">
+        <v>109.2212</v>
+      </c>
+      <c r="T2">
+        <v>2447.34</v>
+      </c>
+      <c r="U2">
+        <v>2730.53</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>84279.66</v>
+      </c>
+      <c r="X2">
+        <v>119199.92</v>
+      </c>
+      <c r="Y2">
+        <v>370924.67</v>
+      </c>
+      <c r="Z2">
+        <v>155605.48</v>
+      </c>
+      <c r="AA2">
+        <v>37806.51</v>
+      </c>
+      <c r="AB2">
+        <v>11389.73</v>
+      </c>
+      <c r="AC2">
+        <v>49504.24</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0</v>
+      </c>
+      <c r="AE2">
+        <v>63705.27</v>
+      </c>
+      <c r="AF2">
+        <v>0.16</v>
+      </c>
+      <c r="AG2">
+        <v>-65806.45</v>
+      </c>
+      <c r="AH2">
+        <v>751898.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>51.0</v>
+      </c>
+      <c r="C3">
+        <v>67509.0</v>
+      </c>
+      <c r="D3">
+        <v>64342.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>6474.667</v>
+      </c>
+      <c r="I3">
+        <v>61.0</v>
+      </c>
+      <c r="J3">
+        <v>584.0</v>
+      </c>
+      <c r="K3">
+        <v>36539.603</v>
+      </c>
+      <c r="L3">
+        <v>321094.0</v>
+      </c>
+      <c r="M3">
+        <v>328165.0</v>
+      </c>
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>102.3364</v>
+      </c>
+      <c r="R3">
+        <v>102.3364</v>
+      </c>
+      <c r="S3">
+        <v>109.2212</v>
+      </c>
+      <c r="T3">
+        <v>2558.41</v>
+      </c>
+      <c r="U3">
+        <v>2730.53</v>
+      </c>
+      <c r="V3">
+        <v>0.06</v>
+      </c>
+      <c r="W3">
+        <v>84279.66</v>
+      </c>
+      <c r="X3">
+        <v>243869.56</v>
+      </c>
+      <c r="Y3">
+        <v>526928.5</v>
+      </c>
+      <c r="Z3">
+        <v>236769.5</v>
+      </c>
+      <c r="AA3">
+        <v>38067.17</v>
+      </c>
+      <c r="AB3">
+        <v>8910.77</v>
+      </c>
+      <c r="AC3">
+        <v>47285.94</v>
+      </c>
+      <c r="AD3">
+        <v>-0.0</v>
+      </c>
+      <c r="AE3">
+        <v>63685.29</v>
+      </c>
+      <c r="AF3">
+        <v>0.16</v>
+      </c>
+      <c r="AG3">
+        <v>-157997.09</v>
+      </c>
+      <c r="AH3">
+        <v>852479.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>51.0</v>
+      </c>
+      <c r="C4">
+        <v>67509.0</v>
+      </c>
+      <c r="D4">
+        <v>64342.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>6293.378</v>
+      </c>
+      <c r="I4">
+        <v>49.0</v>
+      </c>
+      <c r="J4">
+        <v>503.0</v>
+      </c>
+      <c r="K4">
+        <v>29998.264</v>
+      </c>
+      <c r="L4">
+        <v>273596.0</v>
+      </c>
+      <c r="M4">
+        <v>327453.0</v>
+      </c>
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>100.8488</v>
+      </c>
+      <c r="R4">
+        <v>100.8488</v>
+      </c>
+      <c r="S4">
+        <v>109.2212</v>
+      </c>
+      <c r="T4">
+        <v>2521.22</v>
+      </c>
+      <c r="U4">
+        <v>2730.53</v>
+      </c>
+      <c r="V4">
+        <v>0.08</v>
+      </c>
+      <c r="W4">
+        <v>84279.66</v>
+      </c>
+      <c r="X4">
+        <v>208289.53</v>
+      </c>
+      <c r="Y4">
+        <v>479430.61</v>
+      </c>
+      <c r="Z4">
+        <v>214778.19</v>
+      </c>
+      <c r="AA4">
+        <v>37984.51</v>
+      </c>
+      <c r="AB4">
+        <v>9576.43</v>
+      </c>
+      <c r="AC4">
+        <v>47868.94</v>
+      </c>
+      <c r="AD4">
+        <v>-0.0</v>
+      </c>
+      <c r="AE4">
+        <v>63703.68</v>
+      </c>
+      <c r="AF4">
+        <v>0.16</v>
+      </c>
+      <c r="AG4">
+        <v>-129240.67</v>
+      </c>
+      <c r="AH4">
+        <v>823230.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>51.0</v>
+      </c>
+      <c r="C5">
+        <v>67509.0</v>
+      </c>
+      <c r="D5">
+        <v>64342.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>5990.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>255.476</v>
+      </c>
+      <c r="I5">
+        <v>31.0</v>
+      </c>
+      <c r="J5">
+        <v>48.0</v>
+      </c>
+      <c r="K5">
+        <v>1470.819</v>
+      </c>
+      <c r="L5">
+        <v>50364.0</v>
+      </c>
+      <c r="M5">
+        <v>330366.0</v>
+      </c>
+      <c r="N5">
+        <v>27.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>96.7524</v>
+      </c>
+      <c r="R5">
+        <v>96.7524</v>
+      </c>
+      <c r="S5">
+        <v>109.2212</v>
+      </c>
+      <c r="T5">
+        <v>2418.81</v>
+      </c>
+      <c r="U5">
+        <v>2730.53</v>
+      </c>
+      <c r="V5">
+        <v>0.11</v>
+      </c>
+      <c r="W5">
+        <v>101833.52</v>
+      </c>
+      <c r="X5">
+        <v>33474.89</v>
+      </c>
+      <c r="Y5">
+        <v>273749.93</v>
+      </c>
+      <c r="Z5">
+        <v>120288.36</v>
+      </c>
+      <c r="AA5">
+        <v>38322.46</v>
+      </c>
+      <c r="AB5">
+        <v>13782.44</v>
+      </c>
+      <c r="AC5">
+        <v>52412.9</v>
+      </c>
+      <c r="AD5">
+        <v>694.0</v>
+      </c>
+      <c r="AE5">
+        <v>64316.16</v>
+      </c>
+      <c r="AF5">
+        <v>0.17</v>
+      </c>
+      <c r="AG5">
+        <v>-28125.11</v>
+      </c>
+      <c r="AH5">
+        <v>714217.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>51.0</v>
+      </c>
+      <c r="C6">
+        <v>67509.0</v>
+      </c>
+      <c r="D6">
+        <v>64342.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>3986.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>2097.045</v>
+      </c>
+      <c r="I6">
+        <v>10.0</v>
+      </c>
+      <c r="J6">
+        <v>37.0</v>
+      </c>
+      <c r="K6">
+        <v>2196.902</v>
+      </c>
+      <c r="L6">
+        <v>26031.0</v>
+      </c>
+      <c r="M6">
+        <v>328447.0</v>
+      </c>
+      <c r="N6">
+        <v>51.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6">
+        <v>96.4284</v>
+      </c>
+      <c r="R6">
+        <v>96.4284</v>
+      </c>
+      <c r="S6">
+        <v>109.2212</v>
+      </c>
+      <c r="T6">
+        <v>2410.71</v>
+      </c>
+      <c r="U6">
+        <v>2730.53</v>
+      </c>
+      <c r="V6">
+        <v>0.12</v>
+      </c>
+      <c r="W6">
+        <v>117160.96</v>
+      </c>
+      <c r="X6">
+        <v>18651.25</v>
+      </c>
+      <c r="Y6">
+        <v>264750.12</v>
+      </c>
+      <c r="Z6">
+        <v>128242.0</v>
+      </c>
+      <c r="AA6">
+        <v>38099.91</v>
+      </c>
+      <c r="AB6">
+        <v>14057.54</v>
+      </c>
+      <c r="AC6">
+        <v>52465.45</v>
+      </c>
+      <c r="AD6">
+        <v>223.0</v>
+      </c>
+      <c r="AE6">
+        <v>64129.35</v>
+      </c>
+      <c r="AF6">
+        <v>0.17</v>
+      </c>
+      <c r="AG6">
+        <v>-31598.47</v>
+      </c>
+      <c r="AH6">
+        <v>726081.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>51.0</v>
+      </c>
+      <c r="C7">
+        <v>67509.0</v>
+      </c>
+      <c r="D7">
+        <v>64342.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>5990.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>107.275</v>
+      </c>
+      <c r="I7">
+        <v>10.0</v>
+      </c>
+      <c r="J7">
+        <v>19.0</v>
+      </c>
+      <c r="K7">
+        <v>414.53</v>
+      </c>
+      <c r="L7">
+        <v>17554.0</v>
+      </c>
+      <c r="M7">
+        <v>330256.0</v>
+      </c>
+      <c r="N7">
+        <v>30.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7">
+        <v>0.0</v>
+      </c>
+      <c r="Q7">
+        <v>96.5628</v>
+      </c>
+      <c r="R7">
+        <v>96.5628</v>
+      </c>
+      <c r="S7">
+        <v>109.2212</v>
+      </c>
+      <c r="T7">
+        <v>2414.07</v>
+      </c>
+      <c r="U7">
+        <v>2730.53</v>
+      </c>
+      <c r="V7">
+        <v>0.12</v>
+      </c>
+      <c r="W7">
+        <v>103645.29</v>
+      </c>
+      <c r="X7">
+        <v>11872.57</v>
+      </c>
+      <c r="Y7">
+        <v>242756.98</v>
+      </c>
+      <c r="Z7">
+        <v>110311.22</v>
+      </c>
+      <c r="AA7">
+        <v>38309.7</v>
+      </c>
+      <c r="AB7">
+        <v>14426.76</v>
+      </c>
+      <c r="AC7">
+        <v>53044.46</v>
+      </c>
+      <c r="AD7">
+        <v>694.0</v>
+      </c>
+      <c r="AE7">
+        <v>64331.2</v>
+      </c>
+      <c r="AF7">
+        <v>0.17</v>
+      </c>
+      <c r="AG7">
+        <v>-8034.48</v>
+      </c>
+      <c r="AH7">
+        <v>702024.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cook County External-C2C/results/cook_county_external_results.xlsx
+++ b/Cook County External-C2C/results/cook_county_external_results.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County External-C2C\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4443FE0-5835-4A6D-AA71-791B55C9F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cornerstone_5" r:id="rId4" sheetId="2"/>
-    <sheet name="CottageGrove_5" r:id="rId6" sheetId="3"/>
-    <sheet name="Phillips_5" r:id="rId7" sheetId="4"/>
-    <sheet name="Harvey_6" r:id="rId8" sheetId="5"/>
+    <sheet name="Cornerstone_5" sheetId="2" r:id="rId2"/>
+    <sheet name="CottageGrove_5" sheetId="3" r:id="rId3"/>
+    <sheet name="Phillips_5" sheetId="4" r:id="rId4"/>
+    <sheet name="Harvey_6" sheetId="5" r:id="rId5"/>
+    <sheet name="CottageGrove_10" sheetId="6" r:id="rId6"/>
+    <sheet name="Cornerstone_11" sheetId="7" r:id="rId7"/>
+    <sheet name="CottageGrove_11" sheetId="8" r:id="rId8"/>
+    <sheet name="Harvey_11" sheetId="9" r:id="rId9"/>
+    <sheet name="Phillips_11" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="40">
   <si>
     <t>City</t>
   </si>
@@ -148,8 +159,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +196,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,10 +486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064D2703-248A-4D71-8B82-600822A8B1FE}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -470,15 +497,760 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AF749C-3559-41F5-8C9D-76D9DC1F132C}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>64886</v>
+      </c>
+      <c r="D2">
+        <v>61842</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2689.4659999999999</v>
+      </c>
+      <c r="I2">
+        <v>53</v>
+      </c>
+      <c r="J2">
+        <v>180</v>
+      </c>
+      <c r="K2">
+        <v>10487.272000000001</v>
+      </c>
+      <c r="L2">
+        <v>129975</v>
+      </c>
+      <c r="M2">
+        <v>271649</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>82.074399999999997</v>
+      </c>
+      <c r="R2">
+        <v>82.074399999999997</v>
+      </c>
+      <c r="S2">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T2">
+        <v>2051.86</v>
+      </c>
+      <c r="U2">
+        <v>2325.04</v>
+      </c>
+      <c r="V2">
+        <v>0.12</v>
+      </c>
+      <c r="W2">
+        <v>81003.98</v>
+      </c>
+      <c r="X2">
+        <v>92538.44</v>
+      </c>
+      <c r="Y2">
+        <v>327811.90999999997</v>
+      </c>
+      <c r="Z2">
+        <v>135661.94</v>
+      </c>
+      <c r="AA2">
+        <v>31511.34</v>
+      </c>
+      <c r="AB2">
+        <v>8971.3700000000008</v>
+      </c>
+      <c r="AC2">
+        <v>40790.71</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>61568.49</v>
+      </c>
+      <c r="AF2">
+        <v>0.19</v>
+      </c>
+      <c r="AG2">
+        <v>-53747.43</v>
+      </c>
+      <c r="AH2">
+        <v>626920.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>226</v>
+      </c>
+      <c r="C3">
+        <v>299716</v>
+      </c>
+      <c r="D3">
+        <v>285654</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>108912</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8757.125</v>
+      </c>
+      <c r="I3">
+        <v>56</v>
+      </c>
+      <c r="J3">
+        <v>279</v>
+      </c>
+      <c r="K3">
+        <v>17774.403999999999</v>
+      </c>
+      <c r="L3">
+        <v>178146</v>
+      </c>
+      <c r="M3">
+        <v>157540</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>36.964399999999998</v>
+      </c>
+      <c r="R3">
+        <v>36.964399999999998</v>
+      </c>
+      <c r="S3">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T3">
+        <v>924.11</v>
+      </c>
+      <c r="U3">
+        <v>2325.04</v>
+      </c>
+      <c r="V3">
+        <v>0.6</v>
+      </c>
+      <c r="W3">
+        <v>374169.84</v>
+      </c>
+      <c r="X3">
+        <v>130409.33</v>
+      </c>
+      <c r="Y3">
+        <v>1091984.24</v>
+      </c>
+      <c r="Z3">
+        <v>453173.74</v>
+      </c>
+      <c r="AA3">
+        <v>18274.59</v>
+      </c>
+      <c r="AB3">
+        <v>5540.77</v>
+      </c>
+      <c r="AC3">
+        <v>24123.360000000001</v>
+      </c>
+      <c r="AD3">
+        <v>12621</v>
+      </c>
+      <c r="AE3">
+        <v>284766.2</v>
+      </c>
+      <c r="AF3">
+        <v>0.86</v>
+      </c>
+      <c r="AG3">
+        <v>-94649.2</v>
+      </c>
+      <c r="AH3">
+        <v>677684.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>266</v>
+      </c>
+      <c r="C4">
+        <v>352169</v>
+      </c>
+      <c r="D4">
+        <v>335646</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>139511</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>21582.758000000002</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>462</v>
+      </c>
+      <c r="K4">
+        <v>30373.103000000003</v>
+      </c>
+      <c r="L4">
+        <v>267281</v>
+      </c>
+      <c r="M4">
+        <v>139511</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>25.638000000000002</v>
+      </c>
+      <c r="R4">
+        <v>25.638000000000002</v>
+      </c>
+      <c r="S4">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T4">
+        <v>640.95000000000005</v>
+      </c>
+      <c r="U4">
+        <v>2325.04</v>
+      </c>
+      <c r="V4">
+        <v>0.72</v>
+      </c>
+      <c r="W4">
+        <v>439652.88</v>
+      </c>
+      <c r="X4">
+        <v>200273.69</v>
+      </c>
+      <c r="Y4">
+        <v>1341038.9099999999</v>
+      </c>
+      <c r="Z4">
+        <v>563470.17000000004</v>
+      </c>
+      <c r="AA4">
+        <v>16183.27</v>
+      </c>
+      <c r="AB4">
+        <v>4165.66</v>
+      </c>
+      <c r="AC4">
+        <v>20656.93</v>
+      </c>
+      <c r="AD4">
+        <v>16167</v>
+      </c>
+      <c r="AE4">
+        <v>333457.24</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>-156515.45000000001</v>
+      </c>
+      <c r="AH4">
+        <v>745322.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>50633</v>
+      </c>
+      <c r="D5">
+        <v>48257</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>809</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>177.52100000000002</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>994.33200000000011</v>
+      </c>
+      <c r="L5">
+        <v>40154</v>
+      </c>
+      <c r="M5">
+        <v>285017</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>83.629599999999996</v>
+      </c>
+      <c r="R5">
+        <v>83.629599999999996</v>
+      </c>
+      <c r="S5">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T5">
+        <v>2090.7399999999998</v>
+      </c>
+      <c r="U5">
+        <v>2325.04</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>79111.94</v>
+      </c>
+      <c r="X5">
+        <v>26124.17</v>
+      </c>
+      <c r="Y5">
+        <v>210433.48</v>
+      </c>
+      <c r="Z5">
+        <v>93178.94</v>
+      </c>
+      <c r="AA5">
+        <v>33062</v>
+      </c>
+      <c r="AB5">
+        <v>11052.91</v>
+      </c>
+      <c r="AC5">
+        <v>44422.91</v>
+      </c>
+      <c r="AD5">
+        <v>94</v>
+      </c>
+      <c r="AE5">
+        <v>48239.47</v>
+      </c>
+      <c r="AF5">
+        <v>0.15</v>
+      </c>
+      <c r="AG5">
+        <v>-27399.86</v>
+      </c>
+      <c r="AH5">
+        <v>600572.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>90101</v>
+      </c>
+      <c r="D6">
+        <v>85874</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6269</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>115.94899999999998</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>664.63800000000003</v>
+      </c>
+      <c r="L6">
+        <v>23255</v>
+      </c>
+      <c r="M6">
+        <v>252826</v>
+      </c>
+      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>76.144800000000004</v>
+      </c>
+      <c r="R6">
+        <v>76.144800000000004</v>
+      </c>
+      <c r="S6">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T6">
+        <v>1903.62</v>
+      </c>
+      <c r="U6">
+        <v>2325.04</v>
+      </c>
+      <c r="V6">
+        <v>0.18</v>
+      </c>
+      <c r="W6">
+        <v>142248.72</v>
+      </c>
+      <c r="X6">
+        <v>15963.65</v>
+      </c>
+      <c r="Y6">
+        <v>327739.28000000003</v>
+      </c>
+      <c r="Z6">
+        <v>151348.82999999999</v>
+      </c>
+      <c r="AA6">
+        <v>29327.81</v>
+      </c>
+      <c r="AB6">
+        <v>10636.5</v>
+      </c>
+      <c r="AC6">
+        <v>40272.31</v>
+      </c>
+      <c r="AD6">
+        <v>726</v>
+      </c>
+      <c r="AE6">
+        <v>85861.84</v>
+      </c>
+      <c r="AF6">
+        <v>0.26</v>
+      </c>
+      <c r="AG6">
+        <v>-30077</v>
+      </c>
+      <c r="AH6">
+        <v>613112.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>95345</v>
+      </c>
+      <c r="D7">
+        <v>90872</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7216</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>143.97200000000001</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>553.649</v>
+      </c>
+      <c r="L7">
+        <v>23724</v>
+      </c>
+      <c r="M7">
+        <v>248762</v>
+      </c>
+      <c r="N7">
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>75.142399999999995</v>
+      </c>
+      <c r="R7">
+        <v>75.142399999999995</v>
+      </c>
+      <c r="S7">
+        <v>93.001599999999996</v>
+      </c>
+      <c r="T7">
+        <v>1878.56</v>
+      </c>
+      <c r="U7">
+        <v>2325.04</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+      <c r="W7">
+        <v>153167.85</v>
+      </c>
+      <c r="X7">
+        <v>15968.55</v>
+      </c>
+      <c r="Y7">
+        <v>348573.14</v>
+      </c>
+      <c r="Z7">
+        <v>162087.82</v>
+      </c>
+      <c r="AA7">
+        <v>28856.44</v>
+      </c>
+      <c r="AB7">
+        <v>10654.45</v>
+      </c>
+      <c r="AC7">
+        <v>39818.89</v>
+      </c>
+      <c r="AD7">
+        <v>836</v>
+      </c>
+      <c r="AE7">
+        <v>90857.57</v>
+      </c>
+      <c r="AF7">
+        <v>0.27</v>
+      </c>
+      <c r="AG7">
+        <v>-31631.69</v>
+      </c>
+      <c r="AH7">
+        <v>620438.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACCC6D7-0D88-4055-A706-B0F998907897}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,63 +1354,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>8328.0</v>
+        <v>8328</v>
       </c>
       <c r="D2">
-        <v>7937.0</v>
+        <v>7937</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>250.858</v>
       </c>
       <c r="I2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>13550.008999999998</v>
       </c>
       <c r="L2">
-        <v>62977.0</v>
+        <v>62977</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>127903.0</v>
+        <v>127903</v>
       </c>
       <c r="Q2">
-        <v>40.4376</v>
+        <v>40.437600000000003</v>
       </c>
       <c r="R2">
-        <v>40.4376</v>
+        <v>40.437600000000003</v>
       </c>
       <c r="S2">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T2">
         <v>1010.94</v>
@@ -665,13 +1437,13 @@
         <v>14836.79</v>
       </c>
       <c r="AB2">
-        <v>2330.0</v>
+        <v>2330</v>
       </c>
       <c r="AC2">
         <v>17474.79</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>7911.41</v>
@@ -686,63 +1458,63 @@
         <v>246975.87</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>76882.0</v>
+        <v>76882</v>
       </c>
       <c r="D3">
-        <v>73275.0</v>
+        <v>73275</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2651.0</v>
+        <v>2651</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16620.551</v>
+        <v>16620.550999999999</v>
       </c>
       <c r="I3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="K3">
-        <v>18970.275</v>
+        <v>18970.275000000001</v>
       </c>
       <c r="L3">
-        <v>62922.0</v>
+        <v>62922</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>65825.0</v>
+        <v>65825</v>
       </c>
       <c r="Q3">
-        <v>23.614</v>
+        <v>23.614000000000001</v>
       </c>
       <c r="R3">
-        <v>23.614</v>
+        <v>23.614000000000001</v>
       </c>
       <c r="S3">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T3">
         <v>590.35</v>
@@ -772,13 +1544,13 @@
         <v>1748.74</v>
       </c>
       <c r="AC3">
-        <v>9692.47</v>
+        <v>9692.4699999999993</v>
       </c>
       <c r="AD3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="AE3">
-        <v>71588.82</v>
+        <v>71588.820000000007</v>
       </c>
       <c r="AF3">
         <v>0.53</v>
@@ -790,63 +1562,63 @@
         <v>258659.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>79423.0</v>
+        <v>79423</v>
       </c>
       <c r="D4">
-        <v>75697.0</v>
+        <v>75697</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>14423.0</v>
+        <v>14423</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6817.132</v>
+        <v>6817.1319999999996</v>
       </c>
       <c r="I4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="K4">
-        <v>13700.024</v>
+        <v>13700.023999999999</v>
       </c>
       <c r="L4">
-        <v>55542.0</v>
+        <v>55542</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>74582.0</v>
+        <v>74582</v>
       </c>
       <c r="Q4">
-        <v>24.6064</v>
+        <v>24.606400000000001</v>
       </c>
       <c r="R4">
-        <v>24.6064</v>
+        <v>24.606400000000001</v>
       </c>
       <c r="S4">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T4">
         <v>615.16</v>
@@ -879,13 +1651,13 @@
         <v>10741.46</v>
       </c>
       <c r="AD4">
-        <v>1671.0</v>
+        <v>1671</v>
       </c>
       <c r="AE4">
         <v>75005.03</v>
       </c>
       <c r="AF4">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AG4">
         <v>-37900.6</v>
@@ -894,63 +1666,63 @@
         <v>252167.01</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>8609.0</v>
+        <v>8609</v>
       </c>
       <c r="D5">
-        <v>8205.0</v>
+        <v>8205</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>218.09500000000003</v>
       </c>
       <c r="I5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>953.0980000000001</v>
+        <v>953.09800000000007</v>
       </c>
       <c r="L5">
-        <v>17722.0</v>
+        <v>17722</v>
       </c>
       <c r="M5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>126239.0</v>
+        <v>126239</v>
       </c>
       <c r="Q5">
-        <v>38.3976</v>
+        <v>38.397599999999997</v>
       </c>
       <c r="R5">
-        <v>38.3976</v>
+        <v>38.397599999999997</v>
       </c>
       <c r="S5">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T5">
         <v>959.94</v>
@@ -980,10 +1752,10 @@
         <v>2983.08</v>
       </c>
       <c r="AC5">
-        <v>17934.76</v>
+        <v>17934.759999999998</v>
       </c>
       <c r="AD5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>8182.5</v>
@@ -998,63 +1770,63 @@
         <v>220699.1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>28920.0</v>
+        <v>28920</v>
       </c>
       <c r="D6">
-        <v>27563.0</v>
+        <v>27563</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>523.763</v>
+        <v>523.76300000000003</v>
       </c>
       <c r="I6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>2813.694</v>
       </c>
       <c r="L6">
-        <v>20502.0</v>
+        <v>20502</v>
       </c>
       <c r="M6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>107087.0</v>
+        <v>107087</v>
       </c>
       <c r="Q6">
-        <v>34.6408</v>
+        <v>34.640799999999999</v>
       </c>
       <c r="R6">
-        <v>34.6408</v>
+        <v>34.640799999999999</v>
       </c>
       <c r="S6">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T6">
         <v>866.02</v>
@@ -1066,7 +1838,7 @@
         <v>0.13</v>
       </c>
       <c r="W6">
-        <v>36103.59</v>
+        <v>36103.589999999997</v>
       </c>
       <c r="X6">
         <v>14234.08</v>
@@ -1087,7 +1859,7 @@
         <v>15337.99</v>
       </c>
       <c r="AD6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>27509.63</v>
@@ -1096,60 +1868,60 @@
         <v>0.2</v>
       </c>
       <c r="AG6">
-        <v>-9325.29</v>
+        <v>-9325.2900000000009</v>
       </c>
       <c r="AH6">
         <v>223950.81</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10383.0</v>
+        <v>10383</v>
       </c>
       <c r="D7">
-        <v>9896.0</v>
+        <v>9896</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>76.175</v>
+        <v>76.174999999999997</v>
       </c>
       <c r="I7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>194.95600000000002</v>
       </c>
       <c r="L7">
-        <v>11571.0</v>
+        <v>11571</v>
       </c>
       <c r="M7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>124464.0</v>
+        <v>124464</v>
       </c>
       <c r="Q7">
         <v>38.0456</v>
@@ -1158,7 +1930,7 @@
         <v>38.0456</v>
       </c>
       <c r="S7">
-        <v>39.996</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="T7">
         <v>951.14</v>
@@ -1188,16 +1960,16 @@
         <v>3108.11</v>
       </c>
       <c r="AC7">
-        <v>17853.94</v>
+        <v>17853.939999999999</v>
       </c>
       <c r="AD7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>9888.52</v>
       </c>
       <c r="AF7">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG7">
         <v>-4026.61</v>
@@ -1212,14 +1984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCD7FCC-ECB4-4AC4-818F-6D4EE324AE3D}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,36 +2088,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>11997.0</v>
+        <v>11997</v>
       </c>
       <c r="D2">
-        <v>11434.0</v>
+        <v>11434</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>49.292</v>
+        <v>49.292000000000002</v>
       </c>
       <c r="I2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>7859.902</v>
@@ -1352,7 +2126,7 @@
         <v>56369.95</v>
       </c>
       <c r="M2">
-        <v>139818.0</v>
+        <v>139818</v>
       </c>
       <c r="N2">
         <v>42.9696</v>
@@ -1361,7 +2135,7 @@
         <v>42.9696</v>
       </c>
       <c r="P2">
-        <v>43.9812</v>
+        <v>43.981200000000001</v>
       </c>
       <c r="Q2">
         <v>1074.24</v>
@@ -1382,7 +2156,7 @@
         <v>92948.47</v>
       </c>
       <c r="W2">
-        <v>39413.66</v>
+        <v>39413.660000000003</v>
       </c>
       <c r="X2">
         <v>16218.89</v>
@@ -1394,7 +2168,7 @@
         <v>19567.72</v>
       </c>
       <c r="AA2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>11429.58</v>
@@ -1409,54 +2183,54 @@
         <v>270164.75</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>89850.0</v>
+        <v>89850</v>
       </c>
       <c r="D3">
-        <v>85635.0</v>
+        <v>85635</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18427.0</v>
+        <v>18427</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>3705.2960000000003</v>
       </c>
       <c r="I3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>9596.446</v>
+        <v>9596.4459999999999</v>
       </c>
       <c r="L3">
         <v>53353.3</v>
       </c>
       <c r="M3">
-        <v>84241.0</v>
+        <v>84241</v>
       </c>
       <c r="N3">
-        <v>27.0648</v>
+        <v>27.064800000000002</v>
       </c>
       <c r="O3">
-        <v>27.0648</v>
+        <v>27.064800000000002</v>
       </c>
       <c r="P3">
-        <v>43.9812</v>
+        <v>43.981200000000001</v>
       </c>
       <c r="Q3">
         <v>676.62</v>
@@ -1471,13 +2245,13 @@
         <v>112170.4</v>
       </c>
       <c r="U3">
-        <v>38976.38</v>
+        <v>38976.379999999997</v>
       </c>
       <c r="V3">
         <v>327304.62</v>
       </c>
       <c r="W3">
-        <v>135741.05</v>
+        <v>135741.04999999999</v>
       </c>
       <c r="X3">
         <v>9772.01</v>
@@ -1489,13 +2263,13 @@
         <v>12477.86</v>
       </c>
       <c r="AA3">
-        <v>2135.0</v>
+        <v>2135</v>
       </c>
       <c r="AB3">
         <v>85258.99</v>
       </c>
       <c r="AC3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AD3">
         <v>-35876.15</v>
@@ -1504,36 +2278,36 @@
         <v>277906.75</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>77583.0</v>
+        <v>77583</v>
       </c>
       <c r="D4">
-        <v>73943.0</v>
+        <v>73943</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1903.0</v>
+        <v>1903</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>12035.964</v>
       </c>
       <c r="I4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="K4">
         <v>14718.246000000001</v>
@@ -1542,16 +2316,16 @@
         <v>57498.35</v>
       </c>
       <c r="M4">
-        <v>79982.0</v>
+        <v>79982</v>
       </c>
       <c r="N4">
-        <v>28.1824</v>
+        <v>28.182400000000001</v>
       </c>
       <c r="O4">
-        <v>28.1824</v>
+        <v>28.182400000000001</v>
       </c>
       <c r="P4">
-        <v>43.9812</v>
+        <v>43.981200000000001</v>
       </c>
       <c r="Q4">
         <v>704.56</v>
@@ -1575,7 +2349,7 @@
         <v>123425.94</v>
       </c>
       <c r="X4">
-        <v>9277.88</v>
+        <v>9277.8799999999992</v>
       </c>
       <c r="Y4">
         <v>2352.83</v>
@@ -1584,7 +2358,7 @@
         <v>11938.71</v>
       </c>
       <c r="AA4">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="AB4">
         <v>72722.28</v>
@@ -1605,14 +2379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815602CE-671A-422F-B53B-2E4E81710CB9}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1716,54 +2492,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>40863.0</v>
+        <v>40863</v>
       </c>
       <c r="D2">
-        <v>38946.0</v>
+        <v>38946</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>293590.0</v>
+        <v>293590</v>
       </c>
       <c r="N2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>85.32</v>
@@ -1772,10 +2548,10 @@
         <v>85.32</v>
       </c>
       <c r="S2">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T2">
-        <v>2133.0</v>
+        <v>2133</v>
       </c>
       <c r="U2">
         <v>2325.04</v>
@@ -1787,7 +2563,7 @@
         <v>85345.83</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>158922.75</v>
@@ -1796,7 +2572,7 @@
         <v>85345.83</v>
       </c>
       <c r="AA2">
-        <v>34056.38</v>
+        <v>34056.379999999997</v>
       </c>
       <c r="AB2">
         <v>12320.99</v>
@@ -1805,10 +2581,10 @@
         <v>46685.37</v>
       </c>
       <c r="AD2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>38945.66</v>
+        <v>38945.660000000003</v>
       </c>
       <c r="AF2">
         <v>0.12</v>
@@ -1820,63 +2596,63 @@
         <v>611309.65</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>61981.0</v>
+        <v>61981</v>
       </c>
       <c r="D3">
-        <v>59073.0</v>
+        <v>59073</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>275301.0</v>
+        <v>275301</v>
       </c>
       <c r="N3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>81.3504</v>
+        <v>81.350399999999993</v>
       </c>
       <c r="R3">
-        <v>81.3504</v>
+        <v>81.350399999999993</v>
       </c>
       <c r="S3">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T3">
         <v>2033.76</v>
@@ -1891,7 +2667,7 @@
         <v>105667.97</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>217269.64</v>
@@ -1909,7 +2685,7 @@
         <v>44227.74</v>
       </c>
       <c r="AD3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="AE3">
         <v>59072.88</v>
@@ -1921,66 +2697,66 @@
         <v>-23845.26</v>
       </c>
       <c r="AH3">
-        <v>603789.2</v>
+        <v>603789.19999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>57023.0</v>
+        <v>57023</v>
       </c>
       <c r="D4">
-        <v>54348.0</v>
+        <v>54348</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1448.0</v>
+        <v>1448</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>279464.0</v>
+        <v>279464</v>
       </c>
       <c r="N4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>82.2824</v>
+        <v>82.282399999999996</v>
       </c>
       <c r="R4">
-        <v>82.2824</v>
+        <v>82.282399999999996</v>
       </c>
       <c r="S4">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T4">
         <v>2057.06</v>
@@ -1995,7 +2771,7 @@
         <v>92258.42</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>194933.99</v>
@@ -2013,7 +2789,7 @@
         <v>44767.39</v>
       </c>
       <c r="AD4">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="AE4">
         <v>54348.13</v>
@@ -2028,54 +2804,54 @@
         <v>593515.59</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>40863.0</v>
+        <v>40863</v>
       </c>
       <c r="D5">
-        <v>38946.0</v>
+        <v>38946</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>293590.0</v>
+        <v>293590</v>
       </c>
       <c r="N5">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>85.32</v>
@@ -2084,10 +2860,10 @@
         <v>85.32</v>
       </c>
       <c r="S5">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T5">
-        <v>2133.0</v>
+        <v>2133</v>
       </c>
       <c r="U5">
         <v>2325.04</v>
@@ -2099,7 +2875,7 @@
         <v>85345.83</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>158922.75</v>
@@ -2108,7 +2884,7 @@
         <v>85345.83</v>
       </c>
       <c r="AA5">
-        <v>34056.38</v>
+        <v>34056.379999999997</v>
       </c>
       <c r="AB5">
         <v>12320.99</v>
@@ -2117,10 +2893,10 @@
         <v>46685.37</v>
       </c>
       <c r="AD5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>38945.66</v>
+        <v>38945.660000000003</v>
       </c>
       <c r="AF5">
         <v>0.12</v>
@@ -2132,63 +2908,63 @@
         <v>611309.65</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>61981.0</v>
+        <v>61981</v>
       </c>
       <c r="D6">
-        <v>59073.0</v>
+        <v>59073</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>275301.0</v>
+        <v>275301</v>
       </c>
       <c r="N6">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>81.3504</v>
+        <v>81.350399999999993</v>
       </c>
       <c r="R6">
-        <v>81.3504</v>
+        <v>81.350399999999993</v>
       </c>
       <c r="S6">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T6">
         <v>2033.76</v>
@@ -2203,7 +2979,7 @@
         <v>105667.97</v>
       </c>
       <c r="X6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>217269.64</v>
@@ -2221,7 +2997,7 @@
         <v>44227.74</v>
       </c>
       <c r="AD6">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="AE6">
         <v>59072.88</v>
@@ -2236,63 +3012,63 @@
         <v>605096.22</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>57023.0</v>
+        <v>57023</v>
       </c>
       <c r="D7">
-        <v>54348.0</v>
+        <v>54348</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1448.0</v>
+        <v>1448</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>279464.0</v>
+        <v>279464</v>
       </c>
       <c r="N7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>82.2824</v>
+        <v>82.282399999999996</v>
       </c>
       <c r="R7">
-        <v>82.2824</v>
+        <v>82.282399999999996</v>
       </c>
       <c r="S7">
-        <v>93.0016</v>
+        <v>93.001599999999996</v>
       </c>
       <c r="T7">
         <v>2057.06</v>
@@ -2307,7 +3083,7 @@
         <v>92258.42</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>194933.99</v>
@@ -2325,7 +3101,7 @@
         <v>44767.39</v>
       </c>
       <c r="AD7">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="AE7">
         <v>54348.13</v>
@@ -2346,14 +3122,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB6566F-79A7-489B-BD03-17B2F413CF29}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2457,60 +3235,60 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D2">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>6277.7029999999995</v>
       </c>
       <c r="I2">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="J2">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="K2">
-        <v>15680.407</v>
+        <v>15680.406999999999</v>
       </c>
       <c r="L2">
-        <v>165088.0</v>
+        <v>165088</v>
       </c>
       <c r="M2">
-        <v>325918.0</v>
+        <v>325918</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>97.8936</v>
+        <v>97.893600000000006</v>
       </c>
       <c r="R2">
-        <v>97.8936</v>
+        <v>97.893600000000006</v>
       </c>
       <c r="S2">
         <v>109.2212</v>
@@ -2534,7 +3312,7 @@
         <v>370924.67</v>
       </c>
       <c r="Z2">
-        <v>155605.48</v>
+        <v>155605.48000000001</v>
       </c>
       <c r="AA2">
         <v>37806.51</v>
@@ -2546,7 +3324,7 @@
         <v>49504.24</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>63705.27</v>
@@ -2561,54 +3339,54 @@
         <v>751898.49</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D3">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6474.667</v>
+        <v>6474.6670000000004</v>
       </c>
       <c r="I3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="K3">
-        <v>36539.603</v>
+        <v>36539.603000000003</v>
       </c>
       <c r="L3">
-        <v>321094.0</v>
+        <v>321094</v>
       </c>
       <c r="M3">
-        <v>328165.0</v>
+        <v>328165</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>102.3364</v>
@@ -2650,7 +3428,7 @@
         <v>47285.94</v>
       </c>
       <c r="AD3">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>63685.29</v>
@@ -2665,54 +3443,54 @@
         <v>852479.94</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D4">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6293.378</v>
+        <v>6293.3779999999997</v>
       </c>
       <c r="I4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J4">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="K4">
-        <v>29998.264</v>
+        <v>29998.263999999999</v>
       </c>
       <c r="L4">
-        <v>273596.0</v>
+        <v>273596</v>
       </c>
       <c r="M4">
-        <v>327453.0</v>
+        <v>327453</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>100.8488</v>
@@ -2724,7 +3502,7 @@
         <v>109.2212</v>
       </c>
       <c r="T4">
-        <v>2521.22</v>
+        <v>2521.2199999999998</v>
       </c>
       <c r="U4">
         <v>2730.53</v>
@@ -2754,7 +3532,7 @@
         <v>47868.94</v>
       </c>
       <c r="AD4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>63703.68</v>
@@ -2769,60 +3547,60 @@
         <v>823230.68</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D5">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5990.0</v>
+        <v>5990</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>255.476</v>
       </c>
       <c r="I5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="J5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1470.819</v>
       </c>
       <c r="L5">
-        <v>50364.0</v>
+        <v>50364</v>
       </c>
       <c r="M5">
-        <v>330366.0</v>
+        <v>330366</v>
       </c>
       <c r="N5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>96.7524</v>
+        <v>96.752399999999994</v>
       </c>
       <c r="R5">
-        <v>96.7524</v>
+        <v>96.752399999999994</v>
       </c>
       <c r="S5">
         <v>109.2212</v>
@@ -2858,10 +3636,10 @@
         <v>52412.9</v>
       </c>
       <c r="AD5">
-        <v>694.0</v>
+        <v>694</v>
       </c>
       <c r="AE5">
-        <v>64316.16</v>
+        <v>64316.160000000003</v>
       </c>
       <c r="AF5">
         <v>0.17</v>
@@ -2873,60 +3651,60 @@
         <v>714217.15</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D6">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3986.0</v>
+        <v>3986</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2097.045</v>
+        <v>2097.0450000000001</v>
       </c>
       <c r="I6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>2196.902</v>
       </c>
       <c r="L6">
-        <v>26031.0</v>
+        <v>26031</v>
       </c>
       <c r="M6">
-        <v>328447.0</v>
+        <v>328447</v>
       </c>
       <c r="N6">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>96.4284</v>
+        <v>96.428399999999996</v>
       </c>
       <c r="R6">
-        <v>96.4284</v>
+        <v>96.428399999999996</v>
       </c>
       <c r="S6">
         <v>109.2212</v>
@@ -2941,7 +3719,7 @@
         <v>0.12</v>
       </c>
       <c r="W6">
-        <v>117160.96</v>
+        <v>117160.96000000001</v>
       </c>
       <c r="X6">
         <v>18651.25</v>
@@ -2950,10 +3728,10 @@
         <v>264750.12</v>
       </c>
       <c r="Z6">
-        <v>128242.0</v>
+        <v>128242</v>
       </c>
       <c r="AA6">
-        <v>38099.91</v>
+        <v>38099.910000000003</v>
       </c>
       <c r="AB6">
         <v>14057.54</v>
@@ -2962,7 +3740,7 @@
         <v>52465.45</v>
       </c>
       <c r="AD6">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="AE6">
         <v>64129.35</v>
@@ -2977,66 +3755,66 @@
         <v>726081.31</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>67509.0</v>
+        <v>67509</v>
       </c>
       <c r="D7">
-        <v>64342.0</v>
+        <v>64342</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5990.0</v>
+        <v>5990</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>107.275</v>
+        <v>107.27500000000001</v>
       </c>
       <c r="I7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>414.53</v>
       </c>
       <c r="L7">
-        <v>17554.0</v>
+        <v>17554</v>
       </c>
       <c r="M7">
-        <v>330256.0</v>
+        <v>330256</v>
       </c>
       <c r="N7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>96.5628</v>
+        <v>96.562799999999996</v>
       </c>
       <c r="R7">
-        <v>96.5628</v>
+        <v>96.562799999999996</v>
       </c>
       <c r="S7">
         <v>109.2212</v>
       </c>
       <c r="T7">
-        <v>2414.07</v>
+        <v>2414.0700000000002</v>
       </c>
       <c r="U7">
         <v>2730.53</v>
@@ -3057,7 +3835,7 @@
         <v>110311.22</v>
       </c>
       <c r="AA7">
-        <v>38309.7</v>
+        <v>38309.699999999997</v>
       </c>
       <c r="AB7">
         <v>14426.76</v>
@@ -3066,10 +3844,10 @@
         <v>53044.46</v>
       </c>
       <c r="AD7">
-        <v>694.0</v>
+        <v>694</v>
       </c>
       <c r="AE7">
-        <v>64331.2</v>
+        <v>64331.199999999997</v>
       </c>
       <c r="AF7">
         <v>0.17</v>
@@ -3079,6 +3857,2668 @@
       </c>
       <c r="AH7">
         <v>702024.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D909A2-F82B-4313-B232-6D274FF1DD18}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>11997</v>
+      </c>
+      <c r="D2">
+        <v>11434</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>49.292000000000002</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>84</v>
+      </c>
+      <c r="K2">
+        <v>7859.902</v>
+      </c>
+      <c r="L2">
+        <v>56370</v>
+      </c>
+      <c r="M2">
+        <v>139818</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>42.9696</v>
+      </c>
+      <c r="R2">
+        <v>42.9696</v>
+      </c>
+      <c r="S2">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T2">
+        <v>1074.24</v>
+      </c>
+      <c r="U2">
+        <v>1099.53</v>
+      </c>
+      <c r="V2">
+        <v>0.02</v>
+      </c>
+      <c r="W2">
+        <v>14977.8</v>
+      </c>
+      <c r="X2">
+        <v>40771.74</v>
+      </c>
+      <c r="Y2">
+        <v>92948.47</v>
+      </c>
+      <c r="Z2">
+        <v>39413.660000000003</v>
+      </c>
+      <c r="AA2">
+        <v>16218.89</v>
+      </c>
+      <c r="AB2">
+        <v>3040.83</v>
+      </c>
+      <c r="AC2">
+        <v>19567.72</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>11429.58</v>
+      </c>
+      <c r="AF2">
+        <v>0.08</v>
+      </c>
+      <c r="AG2">
+        <v>-30122.98</v>
+      </c>
+      <c r="AH2">
+        <v>270164.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>89850</v>
+      </c>
+      <c r="D3">
+        <v>85635</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>18427</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3705.2960000000003</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>9596.4459999999999</v>
+      </c>
+      <c r="L3">
+        <v>53353</v>
+      </c>
+      <c r="M3">
+        <v>84241</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>27.064800000000002</v>
+      </c>
+      <c r="R3">
+        <v>27.064800000000002</v>
+      </c>
+      <c r="S3">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T3">
+        <v>676.62</v>
+      </c>
+      <c r="U3">
+        <v>1099.53</v>
+      </c>
+      <c r="V3">
+        <v>0.38</v>
+      </c>
+      <c r="W3">
+        <v>112170.4</v>
+      </c>
+      <c r="X3">
+        <v>38976.379999999997</v>
+      </c>
+      <c r="Y3">
+        <v>327304.62</v>
+      </c>
+      <c r="Z3">
+        <v>135741.04999999999</v>
+      </c>
+      <c r="AA3">
+        <v>9772.01</v>
+      </c>
+      <c r="AB3">
+        <v>2397.85</v>
+      </c>
+      <c r="AC3">
+        <v>12477.86</v>
+      </c>
+      <c r="AD3">
+        <v>2135</v>
+      </c>
+      <c r="AE3">
+        <v>85258.99</v>
+      </c>
+      <c r="AF3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>-35876.15</v>
+      </c>
+      <c r="AH3">
+        <v>277906.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>77583</v>
+      </c>
+      <c r="D4">
+        <v>73943</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1903</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>12035.964</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>14718.246000000001</v>
+      </c>
+      <c r="L4">
+        <v>57498</v>
+      </c>
+      <c r="M4">
+        <v>79982</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>28.182400000000001</v>
+      </c>
+      <c r="R4">
+        <v>28.182400000000001</v>
+      </c>
+      <c r="S4">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T4">
+        <v>704.56</v>
+      </c>
+      <c r="U4">
+        <v>1099.53</v>
+      </c>
+      <c r="V4">
+        <v>0.36</v>
+      </c>
+      <c r="W4">
+        <v>96855.89</v>
+      </c>
+      <c r="X4">
+        <v>43025.49</v>
+      </c>
+      <c r="Y4">
+        <v>294046.95</v>
+      </c>
+      <c r="Z4">
+        <v>123425.94</v>
+      </c>
+      <c r="AA4">
+        <v>9277.8799999999992</v>
+      </c>
+      <c r="AB4">
+        <v>2352.83</v>
+      </c>
+      <c r="AC4">
+        <v>11938.71</v>
+      </c>
+      <c r="AD4">
+        <v>107</v>
+      </c>
+      <c r="AE4">
+        <v>72722.28</v>
+      </c>
+      <c r="AF4">
+        <v>0.48</v>
+      </c>
+      <c r="AG4">
+        <v>-38575.14</v>
+      </c>
+      <c r="AH4">
+        <v>280845.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98247BE-B958-4047-95D8-2A35DA2006E3}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8328</v>
+      </c>
+      <c r="D2">
+        <v>7937</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>250.858</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>93</v>
+      </c>
+      <c r="K2">
+        <v>13550.008999999998</v>
+      </c>
+      <c r="L2">
+        <v>62977</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>127903</v>
+      </c>
+      <c r="Q2">
+        <v>40.437600000000003</v>
+      </c>
+      <c r="R2">
+        <v>40.437600000000003</v>
+      </c>
+      <c r="S2">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T2">
+        <v>1010.94</v>
+      </c>
+      <c r="U2">
+        <v>999.9</v>
+      </c>
+      <c r="V2">
+        <v>-0.01</v>
+      </c>
+      <c r="W2">
+        <v>10396.23</v>
+      </c>
+      <c r="X2">
+        <v>45481.49</v>
+      </c>
+      <c r="Y2">
+        <v>88365.36</v>
+      </c>
+      <c r="Z2">
+        <v>37617.35</v>
+      </c>
+      <c r="AA2">
+        <v>14836.79</v>
+      </c>
+      <c r="AB2">
+        <v>2330</v>
+      </c>
+      <c r="AC2">
+        <v>17474.79</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>7911.41</v>
+      </c>
+      <c r="AF2">
+        <v>0.06</v>
+      </c>
+      <c r="AG2">
+        <v>-34451.07</v>
+      </c>
+      <c r="AH2">
+        <v>246975.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>79423</v>
+      </c>
+      <c r="D3">
+        <v>75697</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>456</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>20941.275999999998</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>170</v>
+      </c>
+      <c r="K3">
+        <v>23039.269</v>
+      </c>
+      <c r="L3">
+        <v>98107</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>61646</v>
+      </c>
+      <c r="Q3">
+        <v>22.5032</v>
+      </c>
+      <c r="R3">
+        <v>22.5032</v>
+      </c>
+      <c r="S3">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T3">
+        <v>562.58000000000004</v>
+      </c>
+      <c r="U3">
+        <v>999.9</v>
+      </c>
+      <c r="V3">
+        <v>0.44</v>
+      </c>
+      <c r="W3">
+        <v>99152.54</v>
+      </c>
+      <c r="X3">
+        <v>73612.72</v>
+      </c>
+      <c r="Y3">
+        <v>340265.38</v>
+      </c>
+      <c r="Z3">
+        <v>144715.97</v>
+      </c>
+      <c r="AA3">
+        <v>7150.96</v>
+      </c>
+      <c r="AB3">
+        <v>1572.6</v>
+      </c>
+      <c r="AC3">
+        <v>9031.56</v>
+      </c>
+      <c r="AD3">
+        <v>26</v>
+      </c>
+      <c r="AE3">
+        <v>73572.28</v>
+      </c>
+      <c r="AF3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>-68156.240000000005</v>
+      </c>
+      <c r="AH3">
+        <v>283336.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>79423</v>
+      </c>
+      <c r="D4">
+        <v>75697</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>355</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>22084.003999999997</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>308</v>
+      </c>
+      <c r="K4">
+        <v>24711.598000000002</v>
+      </c>
+      <c r="L4">
+        <v>160792</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>61691</v>
+      </c>
+      <c r="Q4">
+        <v>22.334</v>
+      </c>
+      <c r="R4">
+        <v>22.334</v>
+      </c>
+      <c r="S4">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T4">
+        <v>558.35</v>
+      </c>
+      <c r="U4">
+        <v>999.9</v>
+      </c>
+      <c r="V4">
+        <v>0.44</v>
+      </c>
+      <c r="W4">
+        <v>99152.54</v>
+      </c>
+      <c r="X4">
+        <v>123808.1</v>
+      </c>
+      <c r="Y4">
+        <v>402950.14</v>
+      </c>
+      <c r="Z4">
+        <v>177444.7</v>
+      </c>
+      <c r="AA4">
+        <v>7156.15</v>
+      </c>
+      <c r="AB4">
+        <v>1377.55</v>
+      </c>
+      <c r="AC4">
+        <v>8841.7000000000007</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
+        <v>73456.36</v>
+      </c>
+      <c r="AF4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG4">
+        <v>-114227.96</v>
+      </c>
+      <c r="AH4">
+        <v>331531.46999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8609</v>
+      </c>
+      <c r="D5">
+        <v>8205</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>218.09500000000003</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>953.09800000000007</v>
+      </c>
+      <c r="L5">
+        <v>17722</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>126239</v>
+      </c>
+      <c r="Q5">
+        <v>38.397599999999997</v>
+      </c>
+      <c r="R5">
+        <v>38.397599999999997</v>
+      </c>
+      <c r="S5">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T5">
+        <v>959.94</v>
+      </c>
+      <c r="U5">
+        <v>999.9</v>
+      </c>
+      <c r="V5">
+        <v>0.04</v>
+      </c>
+      <c r="W5">
+        <v>10746.97</v>
+      </c>
+      <c r="X5">
+        <v>11426.38</v>
+      </c>
+      <c r="Y5">
+        <v>43964.72</v>
+      </c>
+      <c r="Z5">
+        <v>16838.54</v>
+      </c>
+      <c r="AA5">
+        <v>14643.68</v>
+      </c>
+      <c r="AB5">
+        <v>2983.08</v>
+      </c>
+      <c r="AC5">
+        <v>17934.759999999998</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>8182.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.06</v>
+      </c>
+      <c r="AG5">
+        <v>-6892.05</v>
+      </c>
+      <c r="AH5">
+        <v>220699.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>54598</v>
+      </c>
+      <c r="D6">
+        <v>52036</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>796</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4968.094000000001</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>7242.866</v>
+      </c>
+      <c r="L6">
+        <v>30976</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>83903</v>
+      </c>
+      <c r="Q6">
+        <v>29.302</v>
+      </c>
+      <c r="R6">
+        <v>29.302</v>
+      </c>
+      <c r="S6">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T6">
+        <v>732.55</v>
+      </c>
+      <c r="U6">
+        <v>999.9</v>
+      </c>
+      <c r="V6">
+        <v>0.27</v>
+      </c>
+      <c r="W6">
+        <v>68160.56</v>
+      </c>
+      <c r="X6">
+        <v>22039.94</v>
+      </c>
+      <c r="Y6">
+        <v>197440.17</v>
+      </c>
+      <c r="Z6">
+        <v>81172.460000000006</v>
+      </c>
+      <c r="AA6">
+        <v>9732.7999999999993</v>
+      </c>
+      <c r="AB6">
+        <v>2271.84</v>
+      </c>
+      <c r="AC6">
+        <v>12312.64</v>
+      </c>
+      <c r="AD6">
+        <v>45</v>
+      </c>
+      <c r="AE6">
+        <v>51532.23</v>
+      </c>
+      <c r="AF6">
+        <v>0.38</v>
+      </c>
+      <c r="AG6">
+        <v>-19211.57</v>
+      </c>
+      <c r="AH6">
+        <v>234612.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>79423</v>
+      </c>
+      <c r="D7">
+        <v>75697</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>16263</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4856.012999999999</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>10611.337</v>
+      </c>
+      <c r="L7">
+        <v>41683</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>76083</v>
+      </c>
+      <c r="Q7">
+        <v>24.7852</v>
+      </c>
+      <c r="R7">
+        <v>24.7852</v>
+      </c>
+      <c r="S7">
+        <v>39.996000000000002</v>
+      </c>
+      <c r="T7">
+        <v>619.63</v>
+      </c>
+      <c r="U7">
+        <v>999.9</v>
+      </c>
+      <c r="V7">
+        <v>0.38</v>
+      </c>
+      <c r="W7">
+        <v>99152.54</v>
+      </c>
+      <c r="X7">
+        <v>30613.58</v>
+      </c>
+      <c r="Y7">
+        <v>283838.69</v>
+      </c>
+      <c r="Z7">
+        <v>117754.68</v>
+      </c>
+      <c r="AA7">
+        <v>8825.68</v>
+      </c>
+      <c r="AB7">
+        <v>1952.28</v>
+      </c>
+      <c r="AC7">
+        <v>11085.96</v>
+      </c>
+      <c r="AD7">
+        <v>1885</v>
+      </c>
+      <c r="AE7">
+        <v>75203.97</v>
+      </c>
+      <c r="AF7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG7">
+        <v>-28382.720000000001</v>
+      </c>
+      <c r="AH7">
+        <v>244893.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13499332-B103-49FC-90F7-B341110EA2AE}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>11997</v>
+      </c>
+      <c r="D2">
+        <v>11434</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>49.292000000000002</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>84</v>
+      </c>
+      <c r="K2">
+        <v>7859.902</v>
+      </c>
+      <c r="L2">
+        <v>56370</v>
+      </c>
+      <c r="M2">
+        <v>139818</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>42.9696</v>
+      </c>
+      <c r="R2">
+        <v>42.9696</v>
+      </c>
+      <c r="S2">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T2">
+        <v>1074.24</v>
+      </c>
+      <c r="U2">
+        <v>1099.53</v>
+      </c>
+      <c r="V2">
+        <v>0.02</v>
+      </c>
+      <c r="W2">
+        <v>14977.8</v>
+      </c>
+      <c r="X2">
+        <v>40771.74</v>
+      </c>
+      <c r="Y2">
+        <v>92948.47</v>
+      </c>
+      <c r="Z2">
+        <v>39413.660000000003</v>
+      </c>
+      <c r="AA2">
+        <v>16218.89</v>
+      </c>
+      <c r="AB2">
+        <v>3040.83</v>
+      </c>
+      <c r="AC2">
+        <v>19567.72</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>11429.58</v>
+      </c>
+      <c r="AF2">
+        <v>0.08</v>
+      </c>
+      <c r="AG2">
+        <v>-30122.98</v>
+      </c>
+      <c r="AH2">
+        <v>270164.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>119800</v>
+      </c>
+      <c r="D3">
+        <v>114179</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>36702</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7999.0920000000006</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>111</v>
+      </c>
+      <c r="K3">
+        <v>13383.107</v>
+      </c>
+      <c r="L3">
+        <v>71135</v>
+      </c>
+      <c r="M3">
+        <v>74390</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>20.771599999999999</v>
+      </c>
+      <c r="R3">
+        <v>20.771599999999999</v>
+      </c>
+      <c r="S3">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T3">
+        <v>519.29</v>
+      </c>
+      <c r="U3">
+        <v>1099.53</v>
+      </c>
+      <c r="V3">
+        <v>0.53</v>
+      </c>
+      <c r="W3">
+        <v>149560.53</v>
+      </c>
+      <c r="X3">
+        <v>51968.51</v>
+      </c>
+      <c r="Y3">
+        <v>436406.16</v>
+      </c>
+      <c r="Z3">
+        <v>180988.07</v>
+      </c>
+      <c r="AA3">
+        <v>8629.2099999999991</v>
+      </c>
+      <c r="AB3">
+        <v>2094.3200000000002</v>
+      </c>
+      <c r="AC3">
+        <v>11031.53</v>
+      </c>
+      <c r="AD3">
+        <v>4253</v>
+      </c>
+      <c r="AE3">
+        <v>113368.38</v>
+      </c>
+      <c r="AF3">
+        <v>0.75</v>
+      </c>
+      <c r="AG3">
+        <v>-51321.57</v>
+      </c>
+      <c r="AH3">
+        <v>294404.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>160226</v>
+      </c>
+      <c r="D4">
+        <v>152709</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>60844</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>17762.181</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>194</v>
+      </c>
+      <c r="K4">
+        <v>21064.061999999998</v>
+      </c>
+      <c r="L4">
+        <v>110929</v>
+      </c>
+      <c r="M4">
+        <v>60844</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.6128</v>
+      </c>
+      <c r="R4">
+        <v>11.6128</v>
+      </c>
+      <c r="S4">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T4">
+        <v>290.32</v>
+      </c>
+      <c r="U4">
+        <v>1099.53</v>
+      </c>
+      <c r="V4">
+        <v>0.74</v>
+      </c>
+      <c r="W4">
+        <v>200027.8</v>
+      </c>
+      <c r="X4">
+        <v>83400.2</v>
+      </c>
+      <c r="Y4">
+        <v>599456.92000000004</v>
+      </c>
+      <c r="Z4">
+        <v>251735.95</v>
+      </c>
+      <c r="AA4">
+        <v>7057.88</v>
+      </c>
+      <c r="AB4">
+        <v>1547.68</v>
+      </c>
+      <c r="AC4">
+        <v>8913.56</v>
+      </c>
+      <c r="AD4">
+        <v>7051</v>
+      </c>
+      <c r="AE4">
+        <v>150906.53</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>-83760.850000000006</v>
+      </c>
+      <c r="AH4">
+        <v>329426.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10631</v>
+      </c>
+      <c r="D5">
+        <v>10132</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>39.936999999999998</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>554.55600000000004</v>
+      </c>
+      <c r="L5">
+        <v>15861</v>
+      </c>
+      <c r="M5">
+        <v>140318</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>42.053600000000003</v>
+      </c>
+      <c r="R5">
+        <v>42.053600000000003</v>
+      </c>
+      <c r="S5">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T5">
+        <v>1051.3399999999999</v>
+      </c>
+      <c r="U5">
+        <v>1099.53</v>
+      </c>
+      <c r="V5">
+        <v>0.04</v>
+      </c>
+      <c r="W5">
+        <v>18839.45</v>
+      </c>
+      <c r="X5">
+        <v>10211.200000000001</v>
+      </c>
+      <c r="Y5">
+        <v>53848.9</v>
+      </c>
+      <c r="Z5">
+        <v>24269.99</v>
+      </c>
+      <c r="AA5">
+        <v>16276.89</v>
+      </c>
+      <c r="AB5">
+        <v>3688.17</v>
+      </c>
+      <c r="AC5">
+        <v>20273.060000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>10128.56</v>
+      </c>
+      <c r="AF5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG5">
+        <v>-12909.68</v>
+      </c>
+      <c r="AH5">
+        <v>252951.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>57251</v>
+      </c>
+      <c r="D6">
+        <v>54565</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3559</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>96.37</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>1888.307</v>
+      </c>
+      <c r="L6">
+        <v>20707</v>
+      </c>
+      <c r="M6">
+        <v>99592</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>33.339599999999997</v>
+      </c>
+      <c r="R6">
+        <v>33.339599999999997</v>
+      </c>
+      <c r="S6">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T6">
+        <v>833.49</v>
+      </c>
+      <c r="U6">
+        <v>1099.53</v>
+      </c>
+      <c r="V6">
+        <v>0.24</v>
+      </c>
+      <c r="W6">
+        <v>79922.990000000005</v>
+      </c>
+      <c r="X6">
+        <v>14306.17</v>
+      </c>
+      <c r="Y6">
+        <v>203718.73</v>
+      </c>
+      <c r="Z6">
+        <v>88130.02</v>
+      </c>
+      <c r="AA6">
+        <v>11552.61</v>
+      </c>
+      <c r="AB6">
+        <v>3173.83</v>
+      </c>
+      <c r="AC6">
+        <v>15034.44</v>
+      </c>
+      <c r="AD6">
+        <v>412</v>
+      </c>
+      <c r="AE6">
+        <v>54555.24</v>
+      </c>
+      <c r="AF6">
+        <v>0.36</v>
+      </c>
+      <c r="AG6">
+        <v>-22258.29</v>
+      </c>
+      <c r="AH6">
+        <v>265340.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>65806</v>
+      </c>
+      <c r="D7">
+        <v>62719</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6464</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>826.31499999999994</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>6185.4840000000004</v>
+      </c>
+      <c r="L7">
+        <v>39881</v>
+      </c>
+      <c r="M7">
+        <v>94816</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>31.970800000000001</v>
+      </c>
+      <c r="R7">
+        <v>31.970800000000001</v>
+      </c>
+      <c r="S7">
+        <v>43.981200000000001</v>
+      </c>
+      <c r="T7">
+        <v>799.27</v>
+      </c>
+      <c r="U7">
+        <v>1099.53</v>
+      </c>
+      <c r="V7">
+        <v>0.27</v>
+      </c>
+      <c r="W7">
+        <v>90602.53</v>
+      </c>
+      <c r="X7">
+        <v>29346.29</v>
+      </c>
+      <c r="Y7">
+        <v>248969.76</v>
+      </c>
+      <c r="Z7">
+        <v>108463.96</v>
+      </c>
+      <c r="AA7">
+        <v>10998.65</v>
+      </c>
+      <c r="AB7">
+        <v>2698.73</v>
+      </c>
+      <c r="AC7">
+        <v>14005.38</v>
+      </c>
+      <c r="AD7">
+        <v>749</v>
+      </c>
+      <c r="AE7">
+        <v>62634.33</v>
+      </c>
+      <c r="AF7">
+        <v>0.42</v>
+      </c>
+      <c r="AG7">
+        <v>-31967.96</v>
+      </c>
+      <c r="AH7">
+        <v>277633.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E2DEA-AC9D-421C-A097-F9381F5840D6}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>67509</v>
+      </c>
+      <c r="D2">
+        <v>64342</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6277.7029999999995</v>
+      </c>
+      <c r="I2">
+        <v>59</v>
+      </c>
+      <c r="J2">
+        <v>244</v>
+      </c>
+      <c r="K2">
+        <v>15680.406999999999</v>
+      </c>
+      <c r="L2">
+        <v>165088</v>
+      </c>
+      <c r="M2">
+        <v>325918</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>97.893600000000006</v>
+      </c>
+      <c r="R2">
+        <v>97.893600000000006</v>
+      </c>
+      <c r="S2">
+        <v>109.2212</v>
+      </c>
+      <c r="T2">
+        <v>2447.34</v>
+      </c>
+      <c r="U2">
+        <v>2730.53</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>84279.66</v>
+      </c>
+      <c r="X2">
+        <v>119199.92</v>
+      </c>
+      <c r="Y2">
+        <v>370924.67</v>
+      </c>
+      <c r="Z2">
+        <v>155605.48000000001</v>
+      </c>
+      <c r="AA2">
+        <v>37806.51</v>
+      </c>
+      <c r="AB2">
+        <v>11389.73</v>
+      </c>
+      <c r="AC2">
+        <v>49504.24</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>63705.27</v>
+      </c>
+      <c r="AF2">
+        <v>0.16</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-65806.45</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>751898.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>67509</v>
+      </c>
+      <c r="D3">
+        <v>64342</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6930.1380000000008</v>
+      </c>
+      <c r="I3">
+        <v>93</v>
+      </c>
+      <c r="J3">
+        <v>867</v>
+      </c>
+      <c r="K3">
+        <v>52624.381999999998</v>
+      </c>
+      <c r="L3">
+        <v>478878</v>
+      </c>
+      <c r="M3">
+        <v>329892</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>105.39239999999999</v>
+      </c>
+      <c r="R3">
+        <v>105.39239999999999</v>
+      </c>
+      <c r="S3">
+        <v>109.2212</v>
+      </c>
+      <c r="T3">
+        <v>2634.81</v>
+      </c>
+      <c r="U3">
+        <v>2730.53</v>
+      </c>
+      <c r="V3">
+        <v>0.04</v>
+      </c>
+      <c r="W3">
+        <v>84279.66</v>
+      </c>
+      <c r="X3">
+        <v>363178.76</v>
+      </c>
+      <c r="Y3">
+        <v>684711.39</v>
+      </c>
+      <c r="Z3">
+        <v>311099.33</v>
+      </c>
+      <c r="AA3">
+        <v>38267.440000000002</v>
+      </c>
+      <c r="AB3">
+        <v>7608.69</v>
+      </c>
+      <c r="AC3">
+        <v>46184.13</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>63639.08</v>
+      </c>
+      <c r="AF3">
+        <v>0.16</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>-261414.22</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>959824.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>67509</v>
+      </c>
+      <c r="D4">
+        <v>64342</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8193.7900000000009</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>1314</v>
+      </c>
+      <c r="K4">
+        <v>65003.712</v>
+      </c>
+      <c r="L4">
+        <v>682436</v>
+      </c>
+      <c r="M4">
+        <v>331148</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>106.5968</v>
+      </c>
+      <c r="R4">
+        <v>106.5968</v>
+      </c>
+      <c r="S4">
+        <v>109.2212</v>
+      </c>
+      <c r="T4">
+        <v>2664.92</v>
+      </c>
+      <c r="U4">
+        <v>2730.53</v>
+      </c>
+      <c r="V4">
+        <v>0.02</v>
+      </c>
+      <c r="W4">
+        <v>84279.66</v>
+      </c>
+      <c r="X4">
+        <v>526178.24</v>
+      </c>
+      <c r="Y4">
+        <v>888267.64</v>
+      </c>
+      <c r="Z4">
+        <v>417379.36</v>
+      </c>
+      <c r="AA4">
+        <v>38413.129999999997</v>
+      </c>
+      <c r="AB4">
+        <v>6898.22</v>
+      </c>
+      <c r="AC4">
+        <v>45619.35</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>63510.9</v>
+      </c>
+      <c r="AF4">
+        <v>0.16</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>-411411.1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1116691.3799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>67509</v>
+      </c>
+      <c r="D5">
+        <v>64342</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5990</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>255.476</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>1470.819</v>
+      </c>
+      <c r="L5">
+        <v>50364</v>
+      </c>
+      <c r="M5">
+        <v>330366</v>
+      </c>
+      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>96.752399999999994</v>
+      </c>
+      <c r="R5">
+        <v>96.752399999999994</v>
+      </c>
+      <c r="S5">
+        <v>109.2212</v>
+      </c>
+      <c r="T5">
+        <v>2418.81</v>
+      </c>
+      <c r="U5">
+        <v>2730.53</v>
+      </c>
+      <c r="V5">
+        <v>0.11</v>
+      </c>
+      <c r="W5">
+        <v>101833.52</v>
+      </c>
+      <c r="X5">
+        <v>33474.89</v>
+      </c>
+      <c r="Y5">
+        <v>273749.93</v>
+      </c>
+      <c r="Z5">
+        <v>120288.36</v>
+      </c>
+      <c r="AA5">
+        <v>38322.46</v>
+      </c>
+      <c r="AB5">
+        <v>13782.44</v>
+      </c>
+      <c r="AC5">
+        <v>52412.9</v>
+      </c>
+      <c r="AD5">
+        <v>694</v>
+      </c>
+      <c r="AE5">
+        <v>64316.160000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.17</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>-28125.11</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>714217.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>67509</v>
+      </c>
+      <c r="D6">
+        <v>64342</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4121</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1960.559</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>2029.7669999999998</v>
+      </c>
+      <c r="L6">
+        <v>25070</v>
+      </c>
+      <c r="M6">
+        <v>328565</v>
+      </c>
+      <c r="N6">
+        <v>82</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>96.434799999999996</v>
+      </c>
+      <c r="R6">
+        <v>96.434799999999996</v>
+      </c>
+      <c r="S6">
+        <v>109.2212</v>
+      </c>
+      <c r="T6">
+        <v>2410.87</v>
+      </c>
+      <c r="U6">
+        <v>2730.53</v>
+      </c>
+      <c r="V6">
+        <v>0.12</v>
+      </c>
+      <c r="W6">
+        <v>137816.85999999999</v>
+      </c>
+      <c r="X6">
+        <v>17789.14</v>
+      </c>
+      <c r="Y6">
+        <v>284445.77</v>
+      </c>
+      <c r="Z6">
+        <v>148289.93</v>
+      </c>
+      <c r="AA6">
+        <v>38113.519999999997</v>
+      </c>
+      <c r="AB6">
+        <v>14092.08</v>
+      </c>
+      <c r="AC6">
+        <v>52513.599999999999</v>
+      </c>
+      <c r="AD6">
+        <v>231</v>
+      </c>
+      <c r="AE6">
+        <v>64143.199999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.17</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>-55501.72</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>753912.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>67509</v>
+      </c>
+      <c r="D7">
+        <v>64342</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4280</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1803.4180000000001</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>1829.087</v>
+      </c>
+      <c r="L7">
+        <v>23105</v>
+      </c>
+      <c r="M7">
+        <v>328702</v>
+      </c>
+      <c r="N7">
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>96.439599999999999</v>
+      </c>
+      <c r="R7">
+        <v>96.439599999999999</v>
+      </c>
+      <c r="S7">
+        <v>109.2212</v>
+      </c>
+      <c r="T7">
+        <v>2410.9899999999998</v>
+      </c>
+      <c r="U7">
+        <v>2730.53</v>
+      </c>
+      <c r="V7">
+        <v>0.12</v>
+      </c>
+      <c r="W7">
+        <v>138879.66</v>
+      </c>
+      <c r="X7">
+        <v>16318.09</v>
+      </c>
+      <c r="Y7">
+        <v>283542.99</v>
+      </c>
+      <c r="Z7">
+        <v>148444.19</v>
+      </c>
+      <c r="AA7">
+        <v>38129.440000000002</v>
+      </c>
+      <c r="AB7">
+        <v>14164.42</v>
+      </c>
+      <c r="AC7">
+        <v>52601.86</v>
+      </c>
+      <c r="AD7">
+        <v>240</v>
+      </c>
+      <c r="AE7">
+        <v>64159.14</v>
+      </c>
+      <c r="AF7">
+        <v>0.17</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>-49598.29</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>754878.57</v>
       </c>
     </row>
   </sheetData>
